--- a/Documentação/ProductBacklog.xlsx
+++ b/Documentação/ProductBacklog.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/manoel_almeida_bandtec_com_br/Documents/Acadêmico/Tecnologia da Informação/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\blind-market\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{9139E5FD-9926-4B85-A2D2-0122FABDEF72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4753853C-94E9-40B5-95C2-89EAB5F87254}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -261,7 +260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +307,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -388,11 +399,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -429,6 +466,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,11 +753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1216,7 @@
         <v>13</v>
       </c>
       <c r="D37" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>27</v>
@@ -1185,7 +1230,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>27</v>
@@ -1206,11 +1251,11 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>49</v>
+      <c r="B40" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C40" s="4">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D40" s="4">
         <v>30</v>
@@ -1221,10 +1266,10 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D41" s="4">
         <v>31</v>
@@ -1235,7 +1280,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" s="4">
         <v>13</v>
@@ -1249,10 +1294,10 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D43" s="4">
         <v>33</v>
@@ -1263,10 +1308,10 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D44" s="4">
         <v>34</v>
@@ -1277,7 +1322,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" s="4">
         <v>21</v>
@@ -1290,11 +1335,11 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="4">
-        <v>21</v>
+      <c r="B46" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="16">
+        <v>3</v>
       </c>
       <c r="D46" s="4">
         <v>36</v>
@@ -1305,7 +1350,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C47" s="16">
         <v>3</v>
@@ -1318,25 +1363,25 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="16">
-        <v>3</v>
+      <c r="B48" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="22">
+        <v>5</v>
       </c>
       <c r="D48" s="4">
         <v>38</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="16">
-        <v>5</v>
+      <c r="E48" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="4">
+        <v>13</v>
       </c>
       <c r="D49" s="4">
         <v>39</v>
@@ -1345,21 +1390,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="4">
-        <v>13</v>
-      </c>
-      <c r="D50" s="4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="11">
+        <v>21</v>
+      </c>
+      <c r="D51" s="11">
         <v>40</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>57</v>
       </c>
@@ -1367,27 +1419,27 @@
         <v>13</v>
       </c>
       <c r="D52" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C53" s="11">
         <v>21</v>
       </c>
-      <c r="D53" s="11">
-        <v>41</v>
+      <c r="D53" s="23">
+        <v>42</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" s="17" t="s">
         <v>60</v>
       </c>
@@ -1395,27 +1447,27 @@
         <v>21</v>
       </c>
       <c r="D54" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="11">
         <v>21</v>
       </c>
-      <c r="D55" s="11">
-        <v>43</v>
+      <c r="D55" s="23">
+        <v>44</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1423,27 +1475,27 @@
         <v>21</v>
       </c>
       <c r="D56" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="11">
         <v>21</v>
       </c>
-      <c r="D57" s="11">
-        <v>45</v>
+      <c r="D57" s="23">
+        <v>46</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>64</v>
       </c>
@@ -1451,27 +1503,27 @@
         <v>21</v>
       </c>
       <c r="D58" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C59" s="11">
         <v>21</v>
       </c>
-      <c r="D59" s="11">
-        <v>47</v>
+      <c r="D59" s="23">
+        <v>48</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>66</v>
       </c>
@@ -1479,27 +1531,27 @@
         <v>21</v>
       </c>
       <c r="D60" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C61" s="11">
         <v>13</v>
       </c>
-      <c r="D61" s="11">
-        <v>49</v>
+      <c r="D61" s="23">
+        <v>50</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>68</v>
       </c>
@@ -1507,27 +1559,27 @@
         <v>13</v>
       </c>
       <c r="D62" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C63" s="11">
         <v>13</v>
       </c>
-      <c r="D63" s="11">
-        <v>51</v>
+      <c r="D63" s="23">
+        <v>52</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>70</v>
       </c>
@@ -1535,7 +1587,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>58</v>
@@ -1548,8 +1600,8 @@
       <c r="C65" s="11">
         <v>13</v>
       </c>
-      <c r="D65" s="11">
-        <v>53</v>
+      <c r="D65" s="23">
+        <v>54</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>58</v>
@@ -1569,6 +1621,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037EB6548DE3D0B4FAB42E42BA2CC71F0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c54fa326369124d17a54429b83253287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="93aadb1b-f078-425f-a07f-e2cc4bed1fef" xmlns:ns4="fe025bb9-070a-4424-8929-b6cadbd5fdba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a4e25a91c3db45a1871018eed75e1f9" ns3:_="" ns4:_="">
     <xsd:import namespace="93aadb1b-f078-425f-a07f-e2cc4bed1fef"/>
@@ -1771,15 +1832,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C728231-EDAA-4C6E-ABAD-D5F6C06F1137}">
   <ds:schemaRefs>
@@ -1790,6 +1842,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FD975C-D65C-425C-AA1D-2F3337776AE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC8F4E9-CA64-42D3-8772-29142F0497EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1806,12 +1866,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FD975C-D65C-425C-AA1D-2F3337776AE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentação/ProductBacklog.xlsx
+++ b/Documentação/ProductBacklog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\blind-market\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facul BandTec\PI\Projeto PI\blind-market\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
   <si>
     <t>RA</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Ao fazer login o usuário entra na dashboard contendo o menu lateral</t>
   </si>
   <si>
-    <t>Sprint 3 22-10 à 25-11</t>
-  </si>
-  <si>
     <t>Na dashboard, o usuário encontra a tela principal da mesma, mostrando um grafico de variação dos registros e o grafico estatístico dos estabelecimentos.</t>
   </si>
   <si>
@@ -255,13 +252,82 @@
   </si>
   <si>
     <t>Os algoritmos utilizados no projeto devem ter comentários explicando as funcionalidades</t>
+  </si>
+  <si>
+    <t>Manual de Instalação</t>
+  </si>
+  <si>
+    <t>Planilha de Homologação</t>
+  </si>
+  <si>
+    <t>Doc. Final do Projeto</t>
+  </si>
+  <si>
+    <t>PPT da Apresentação do Projeto</t>
+  </si>
+  <si>
+    <t>Site Institucional da Nuvem</t>
+  </si>
+  <si>
+    <t>Mapeamento das tabelas (entidades) em classes JavaScript</t>
+  </si>
+  <si>
+    <t>Fluxograma do Processo de Atendimento do Suporte</t>
+  </si>
+  <si>
+    <t>Ferramenta de Help Desk configurada e integrada à solução</t>
+  </si>
+  <si>
+    <t>Modelagem Lógica e Dicionário de Dados</t>
+  </si>
+  <si>
+    <t>Script de criação no Azure (Final)</t>
+  </si>
+  <si>
+    <t>Teste integrado do Analytics</t>
+  </si>
+  <si>
+    <t>O arduino deve diferenciar o tempo de aproximação</t>
+  </si>
+  <si>
+    <t>Gravar mp3 com dados dos produtos</t>
+  </si>
+  <si>
+    <t>Colocar os graficos estáticos na dashboard</t>
+  </si>
+  <si>
+    <t>Fazer conexão do site com banco de dados</t>
+  </si>
+  <si>
+    <t>Fazer conexão do arduino com banco de dados</t>
+  </si>
+  <si>
+    <t>Fazer página de busca de supermercados próximos</t>
+  </si>
+  <si>
+    <t>Reproduzir audio ao se aproximar do sensor</t>
+  </si>
+  <si>
+    <t>Sprint 3 22-10 à 28-11</t>
+  </si>
+  <si>
+    <t>Teste integrado da Solução de ioT</t>
+  </si>
+  <si>
+    <t>Colocar dados de empresas, estabelecimentos, sensor,  produtos e categorias no BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazer página de busca de produtos para o cliente final  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configurar SELECTs para os gráficos estatísticos  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +337,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,12 +377,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -319,8 +387,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -425,11 +499,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -453,27 +572,96 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,16 +942,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="106.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="105.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
@@ -771,58 +959,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -831,16 +1019,16 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="36" t="s">
         <v>17</v>
       </c>
     </row>
@@ -848,10 +1036,10 @@
       <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="37">
         <v>5</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="37">
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -862,10 +1050,10 @@
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="38">
         <v>3</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="38">
         <v>2</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -876,10 +1064,10 @@
       <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="38">
         <v>3</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="38">
         <v>3</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -890,10 +1078,10 @@
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="38">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="38">
         <v>4</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -904,10 +1092,10 @@
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="38">
         <v>8</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="38">
         <v>5</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -915,16 +1103,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="39">
         <v>8</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="39">
         <v>6</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -932,67 +1120,73 @@
       <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="38">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="38">
         <v>7</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="40">
         <v>8</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D19" s="40">
         <v>8</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="41">
+        <v>5</v>
+      </c>
+      <c r="D20" s="41">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="41">
         <v>5</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="41">
         <v>10</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
-        <v>11</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>27</v>
@@ -1000,13 +1194,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="4">
-        <v>13</v>
-      </c>
-      <c r="D22" s="4">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="C22" s="41">
+        <v>13</v>
+      </c>
+      <c r="D22" s="41">
+        <v>11</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>27</v>
@@ -1014,13 +1208,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="4">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="C23" s="41">
+        <v>13</v>
+      </c>
+      <c r="D23" s="41">
+        <v>12</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>27</v>
@@ -1028,13 +1222,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4">
+        <v>32</v>
+      </c>
+      <c r="C24" s="41">
         <v>5</v>
       </c>
-      <c r="D24" s="4">
-        <v>14</v>
+      <c r="D24" s="41">
+        <v>13</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>27</v>
@@ -1042,13 +1236,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="4">
+        <v>33</v>
+      </c>
+      <c r="C25" s="41">
         <v>5</v>
       </c>
-      <c r="D25" s="4">
-        <v>15</v>
+      <c r="D25" s="41">
+        <v>14</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>27</v>
@@ -1056,13 +1250,13 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="4">
+        <v>34</v>
+      </c>
+      <c r="C26" s="41">
         <v>5</v>
       </c>
-      <c r="D26" s="4">
-        <v>16</v>
+      <c r="D26" s="41">
+        <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>27</v>
@@ -1070,13 +1264,13 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="4">
+        <v>35</v>
+      </c>
+      <c r="C27" s="41">
         <v>5</v>
       </c>
-      <c r="D27" s="4">
-        <v>17</v>
+      <c r="D27" s="41">
+        <v>16</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>27</v>
@@ -1084,13 +1278,13 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="4">
+        <v>36</v>
+      </c>
+      <c r="C28" s="41">
         <v>5</v>
       </c>
-      <c r="D28" s="4">
-        <v>18</v>
+      <c r="D28" s="41">
+        <v>17</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>27</v>
@@ -1098,13 +1292,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="4">
+        <v>37</v>
+      </c>
+      <c r="C29" s="41">
         <v>5</v>
       </c>
-      <c r="D29" s="4">
-        <v>19</v>
+      <c r="D29" s="41">
+        <v>18</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>27</v>
@@ -1112,13 +1306,13 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="4">
-        <v>3</v>
-      </c>
-      <c r="D30" s="4">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="C30" s="41">
+        <v>5</v>
+      </c>
+      <c r="D30" s="41">
+        <v>19</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>27</v>
@@ -1126,13 +1320,13 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="4">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="C31" s="41">
+        <v>3</v>
+      </c>
+      <c r="D31" s="41">
+        <v>20</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>27</v>
@@ -1140,13 +1334,13 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="4">
-        <v>3</v>
-      </c>
-      <c r="D32" s="4">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="C32" s="41">
+        <v>13</v>
+      </c>
+      <c r="D32" s="41">
+        <v>21</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>27</v>
@@ -1154,13 +1348,13 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="4">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="C33" s="41">
+        <v>3</v>
+      </c>
+      <c r="D33" s="41">
+        <v>22</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>27</v>
@@ -1168,41 +1362,41 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="41">
+        <v>13</v>
+      </c>
+      <c r="D34" s="41">
+        <v>23</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="4">
-        <v>13</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="C35" s="41">
+        <v>13</v>
+      </c>
+      <c r="D35" s="41">
         <v>24</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+      <c r="E35" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C36" s="41">
         <v>8</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D36" s="41">
         <v>25</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="4">
-        <v>21</v>
-      </c>
-      <c r="D36" s="4">
-        <v>26</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>27</v>
@@ -1210,13 +1404,13 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="4">
-        <v>13</v>
-      </c>
-      <c r="D37" s="4">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="C37" s="41">
+        <v>21</v>
+      </c>
+      <c r="D37" s="41">
+        <v>26</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>27</v>
@@ -1224,13 +1418,13 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="4">
-        <v>13</v>
-      </c>
-      <c r="D38" s="4">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="C38" s="41">
+        <v>13</v>
+      </c>
+      <c r="D38" s="41">
+        <v>27</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>27</v>
@@ -1238,13 +1432,13 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="4">
-        <v>13</v>
-      </c>
-      <c r="D39" s="4">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="C39" s="41">
+        <v>13</v>
+      </c>
+      <c r="D39" s="41">
+        <v>28</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>27</v>
@@ -1252,13 +1446,13 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="4">
-        <v>5</v>
-      </c>
-      <c r="D40" s="4">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="C40" s="41">
+        <v>13</v>
+      </c>
+      <c r="D40" s="41">
+        <v>29</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>27</v>
@@ -1266,13 +1460,13 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4">
-        <v>13</v>
-      </c>
-      <c r="D41" s="4">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="C41" s="41">
+        <v>5</v>
+      </c>
+      <c r="D41" s="41">
+        <v>30</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>27</v>
@@ -1280,13 +1474,13 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="4">
-        <v>13</v>
-      </c>
-      <c r="D42" s="4">
-        <v>32</v>
+        <v>51</v>
+      </c>
+      <c r="C42" s="41">
+        <v>13</v>
+      </c>
+      <c r="D42" s="41">
+        <v>31</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>27</v>
@@ -1294,13 +1488,13 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4">
-        <v>5</v>
-      </c>
-      <c r="D43" s="4">
-        <v>33</v>
+        <v>52</v>
+      </c>
+      <c r="C43" s="41">
+        <v>13</v>
+      </c>
+      <c r="D43" s="41">
+        <v>32</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>27</v>
@@ -1308,13 +1502,13 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="4">
-        <v>21</v>
-      </c>
-      <c r="D44" s="4">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="C44" s="41">
+        <v>5</v>
+      </c>
+      <c r="D44" s="41">
+        <v>33</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>27</v>
@@ -1322,289 +1516,625 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="41">
+        <v>21</v>
+      </c>
+      <c r="D45" s="41">
+        <v>34</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C46" s="41">
         <v>21</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D46" s="41">
         <v>35</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="15" t="s">
+      <c r="E46" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="42">
+        <v>3</v>
+      </c>
+      <c r="D47" s="41">
+        <v>36</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C48" s="42">
         <v>3</v>
       </c>
-      <c r="D46" s="4">
-        <v>36</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="15" t="s">
+      <c r="D48" s="41">
+        <v>37</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="16">
-        <v>3</v>
-      </c>
-      <c r="D47" s="4">
-        <v>37</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="22">
+      <c r="C49" s="43">
         <v>5</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D49" s="41">
         <v>38</v>
       </c>
-      <c r="E48" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
+      <c r="E49" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="4">
-        <v>13</v>
-      </c>
-      <c r="D49" s="4">
+      <c r="C50" s="41">
+        <v>13</v>
+      </c>
+      <c r="D50" s="41">
         <v>39</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
+      <c r="E50" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="17"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
+      <c r="B52" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C53" s="18">
         <v>21</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D53" s="44">
         <v>40</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E53" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="18">
+        <v>13</v>
+      </c>
+      <c r="D54" s="44">
+        <v>41</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="11">
-        <v>13</v>
-      </c>
-      <c r="D52" s="11">
-        <v>41</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
+      <c r="C55" s="19">
+        <v>21</v>
+      </c>
+      <c r="D55" s="44">
+        <v>42</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B56" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C56" s="19">
         <v>21</v>
       </c>
-      <c r="D53" s="23">
-        <v>42</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B54" s="17" t="s">
+      <c r="D56" s="44">
+        <v>43</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C57" s="19">
         <v>21</v>
       </c>
-      <c r="D54" s="11">
-        <v>43</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="11">
-        <v>21</v>
-      </c>
-      <c r="D55" s="23">
+      <c r="D57" s="44">
         <v>44</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="11">
-        <v>21</v>
-      </c>
-      <c r="D56" s="11">
-        <v>45</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="11">
-        <v>21</v>
-      </c>
-      <c r="D57" s="23">
-        <v>46</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>58</v>
+      <c r="E57" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="11">
+        <v>61</v>
+      </c>
+      <c r="C58" s="19">
         <v>21</v>
       </c>
-      <c r="D58" s="11">
-        <v>47</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D58" s="44">
+        <v>45</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="11">
+        <v>62</v>
+      </c>
+      <c r="C59" s="19">
         <v>21</v>
       </c>
-      <c r="D59" s="23">
-        <v>48</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>58</v>
+      <c r="D59" s="44">
+        <v>46</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="11">
+        <v>63</v>
+      </c>
+      <c r="C60" s="19">
         <v>21</v>
       </c>
-      <c r="D60" s="11">
-        <v>49</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D60" s="44">
+        <v>47</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="11">
-        <v>13</v>
-      </c>
-      <c r="D61" s="23">
-        <v>50</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="C61" s="19">
+        <v>21</v>
+      </c>
+      <c r="D61" s="44">
+        <v>48</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="11">
-        <v>13</v>
-      </c>
-      <c r="D62" s="11">
-        <v>51</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="C62" s="19">
+        <v>21</v>
+      </c>
+      <c r="D62" s="44">
+        <v>49</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="11">
-        <v>13</v>
-      </c>
-      <c r="D63" s="23">
-        <v>52</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>58</v>
+        <v>66</v>
+      </c>
+      <c r="C63" s="19">
+        <v>13</v>
+      </c>
+      <c r="D63" s="44">
+        <v>50</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="11">
-        <v>13</v>
-      </c>
-      <c r="D64" s="11">
-        <v>53</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="C64" s="18">
+        <v>13</v>
+      </c>
+      <c r="D64" s="44">
+        <v>51</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="18">
+        <v>13</v>
+      </c>
+      <c r="D65" s="44">
+        <v>52</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="18">
+        <v>13</v>
+      </c>
+      <c r="D66" s="44">
+        <v>53</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="18">
+        <v>13</v>
+      </c>
+      <c r="D67" s="44">
+        <v>54</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="18">
+        <v>5</v>
+      </c>
+      <c r="D68" s="44">
+        <v>55</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="18">
+        <v>13</v>
+      </c>
+      <c r="D69" s="44">
+        <v>56</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="18">
+        <v>5</v>
+      </c>
+      <c r="D70" s="44">
+        <v>57</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="18">
+        <v>5</v>
+      </c>
+      <c r="D71" s="44">
+        <v>58</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="18">
+        <v>5</v>
+      </c>
+      <c r="D72" s="44">
+        <v>59</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="18">
+        <v>13</v>
+      </c>
+      <c r="D73" s="44">
+        <v>60</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="18">
+        <v>8</v>
+      </c>
+      <c r="D74" s="44">
+        <v>61</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="18">
+        <v>21</v>
+      </c>
+      <c r="D75" s="44">
+        <v>62</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="18">
+        <v>8</v>
+      </c>
+      <c r="D76" s="44">
+        <v>63</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="18">
+        <v>8</v>
+      </c>
+      <c r="D77" s="44">
+        <v>64</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="18">
+        <v>13</v>
+      </c>
+      <c r="D78" s="44">
+        <v>65</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="18">
+        <v>5</v>
+      </c>
+      <c r="D79" s="44">
+        <v>66</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="18">
+        <v>8</v>
+      </c>
+      <c r="D80" s="44">
+        <v>67</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="18">
+        <v>5</v>
+      </c>
+      <c r="D81" s="44">
+        <v>68</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="18">
+        <v>13</v>
+      </c>
+      <c r="D82" s="44">
+        <v>69</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="18">
+        <v>21</v>
+      </c>
+      <c r="D83" s="44">
+        <v>70</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="18">
+        <v>8</v>
+      </c>
+      <c r="D84" s="44">
         <v>71</v>
       </c>
-      <c r="C65" s="11">
-        <v>13</v>
-      </c>
-      <c r="D65" s="23">
-        <v>54</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>58</v>
+      <c r="E84" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="18">
+        <v>8</v>
+      </c>
+      <c r="D85" s="44">
+        <v>72</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="18">
+        <v>21</v>
+      </c>
+      <c r="D86" s="44">
+        <v>73</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="18">
+        <v>21</v>
+      </c>
+      <c r="D87" s="44">
+        <v>74</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="18">
+        <v>13</v>
+      </c>
+      <c r="D88" s="44">
+        <v>75</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="18">
+        <v>13</v>
+      </c>
+      <c r="D89" s="44">
+        <v>76</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1615,18 +2145,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1833,18 +2363,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C728231-EDAA-4C6E-ABAD-D5F6C06F1137}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FD975C-D65C-425C-AA1D-2F3337776AE2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FD975C-D65C-425C-AA1D-2F3337776AE2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C728231-EDAA-4C6E-ABAD-D5F6C06F1137}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documentação/ProductBacklog.xlsx
+++ b/Documentação/ProductBacklog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facul BandTec\PI\Projeto PI\blind-market\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\blind-market\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -212,12 +212,6 @@
     <t>No menu lateral, está a tela dos Estabelecimentos, que mostra um gráfico de variação dos registros do estabelecimento, grafico estatístico dos produtos do estabelecimento e uma lista dos produtos do estabelecimento.</t>
   </si>
   <si>
-    <t>No menu lateral, está a tela dos Produtos, que exibe o gráfico estatísitico dos produtos e uma lista dos produtos</t>
-  </si>
-  <si>
-    <t>No menu lateral, está a tela das Categorias, que exibe o gráfico estatísitico das categorias e uma lista das categorias</t>
-  </si>
-  <si>
     <t>No gráfico de variação dos registros exibirá uma métrica  dos sensores de todos os estabelecimentos ativados pro dia da semana.</t>
   </si>
   <si>
@@ -227,21 +221,12 @@
     <t>No gráfico estatístico dos produtos mostra os produtos mais acessados e sua quantidade .</t>
   </si>
   <si>
-    <t>No gráfico estatístico das categorias mostra as categorias mais acessadas .</t>
-  </si>
-  <si>
     <t>Na lista dos produtos, conterá o ID, seu nome, categoria que pertence, preço e sua localização (estabelecimento/Corredor/Sensor)</t>
   </si>
   <si>
-    <t>Na lista das categorias, conterá o ID, nome e quantidade de produtos.</t>
-  </si>
-  <si>
     <t>Formulário de cadastro de produtos</t>
   </si>
   <si>
-    <t>Formulário de cadastro de categoria</t>
-  </si>
-  <si>
     <t>Formulário de cadastro de sensor</t>
   </si>
   <si>
@@ -305,9 +290,6 @@
     <t>Fazer página de busca de supermercados próximos</t>
   </si>
   <si>
-    <t>Reproduzir audio ao se aproximar do sensor</t>
-  </si>
-  <si>
     <t>Sprint 3 22-10 à 28-11</t>
   </si>
   <si>
@@ -321,6 +303,24 @@
   </si>
   <si>
     <t xml:space="preserve">Configurar SELECTs para os gráficos estatísticos  </t>
+  </si>
+  <si>
+    <t>Pesquisar ferramenta de Helpdesk</t>
+  </si>
+  <si>
+    <t>Conclur Layouyt da Dashboard</t>
+  </si>
+  <si>
+    <t>No menu superior está a tela dos Produtos, que exibe o gráfico estatísitico dos produtos e uma lista dos produtos</t>
+  </si>
+  <si>
+    <t>Reproduzir audio ao se aproximar do sensor (node)</t>
+  </si>
+  <si>
+    <t>Reproduzir audio ao se aproximar do sensor (Arduino)</t>
+  </si>
+  <si>
+    <t>Implementar layout da tela principal da Dashboard</t>
   </si>
 </sst>
 </file>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C47" s="42">
         <v>3</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C48" s="42">
         <v>3</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C49" s="43">
         <v>5</v>
@@ -1620,288 +1620,288 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="12" t="s">
-        <v>49</v>
+      <c r="B53" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C53" s="18">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D53" s="44">
         <v>40</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="18">
-        <v>13</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B54" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="19">
+        <v>21</v>
       </c>
       <c r="D54" s="44">
         <v>41</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="19">
-        <v>21</v>
+        <v>78</v>
+      </c>
+      <c r="C55" s="18">
+        <v>8</v>
       </c>
       <c r="D55" s="44">
         <v>42</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B56" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="19">
-        <v>21</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="18">
+        <v>8</v>
       </c>
       <c r="D56" s="44">
         <v>43</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="19">
-        <v>21</v>
+        <v>81</v>
+      </c>
+      <c r="C57" s="18">
+        <v>5</v>
       </c>
       <c r="D57" s="44">
         <v>44</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="19">
+        <v>82</v>
+      </c>
+      <c r="C58" s="18">
         <v>21</v>
       </c>
       <c r="D58" s="44">
         <v>45</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="19">
+        <v>94</v>
+      </c>
+      <c r="C59" s="18">
         <v>21</v>
       </c>
       <c r="D59" s="44">
         <v>46</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="19">
+        <v>95</v>
+      </c>
+      <c r="C60" s="18">
         <v>21</v>
       </c>
       <c r="D60" s="44">
         <v>47</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="19">
-        <v>21</v>
+        <v>90</v>
+      </c>
+      <c r="C61" s="18">
+        <v>13</v>
       </c>
       <c r="D61" s="44">
         <v>48</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="19">
-        <v>21</v>
+        <v>92</v>
+      </c>
+      <c r="C62" s="18">
+        <v>13</v>
       </c>
       <c r="D62" s="44">
         <v>49</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="19">
+        <v>89</v>
+      </c>
+      <c r="C63" s="18">
         <v>13</v>
       </c>
       <c r="D63" s="44">
         <v>50</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C64" s="18">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D64" s="44">
         <v>51</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C65" s="18">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D65" s="44">
         <v>52</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="18">
-        <v>13</v>
+        <v>58</v>
+      </c>
+      <c r="C66" s="19">
+        <v>21</v>
       </c>
       <c r="D66" s="44">
         <v>53</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="18">
-        <v>13</v>
+        <v>93</v>
+      </c>
+      <c r="C67" s="19">
+        <v>21</v>
       </c>
       <c r="D67" s="44">
         <v>54</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="18">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="C68" s="19">
+        <v>21</v>
       </c>
       <c r="D68" s="44">
         <v>55</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="18">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="C69" s="19">
+        <v>21</v>
       </c>
       <c r="D69" s="44">
         <v>56</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="18">
-        <v>5</v>
+        <v>62</v>
+      </c>
+      <c r="C70" s="19">
+        <v>21</v>
       </c>
       <c r="D70" s="44">
         <v>57</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="18">
-        <v>5</v>
+        <v>96</v>
+      </c>
+      <c r="C71" s="19">
+        <v>13</v>
       </c>
       <c r="D71" s="44">
         <v>58</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="18">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="C72" s="19">
+        <v>13</v>
       </c>
       <c r="D72" s="44">
         <v>59</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C73" s="18">
         <v>13</v>
@@ -1910,82 +1910,82 @@
         <v>60</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C74" s="18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D74" s="44">
         <v>61</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C75" s="18">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D75" s="44">
         <v>62</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C76" s="18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D76" s="44">
         <v>63</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C77" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D77" s="44">
         <v>64</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C78" s="18">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D78" s="44">
         <v>65</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C79" s="18">
         <v>5</v>
@@ -1994,40 +1994,40 @@
         <v>66</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C80" s="18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D80" s="44">
         <v>67</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C81" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D81" s="44">
         <v>68</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C82" s="18">
         <v>13</v>
@@ -2036,7 +2036,7 @@
         <v>69</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
@@ -2044,13 +2044,13 @@
         <v>87</v>
       </c>
       <c r="C83" s="18">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D83" s="44">
         <v>70</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
@@ -2058,18 +2058,18 @@
         <v>88</v>
       </c>
       <c r="C84" s="18">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D84" s="44">
         <v>71</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C85" s="18">
         <v>8</v>
@@ -2078,26 +2078,26 @@
         <v>72</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C86" s="18">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D86" s="44">
         <v>73</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C87" s="18">
         <v>21</v>
@@ -2106,35 +2106,35 @@
         <v>74</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C88" s="18">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D88" s="44">
         <v>75</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="10" t="s">
-        <v>96</v>
+      <c r="B89" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C89" s="18">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D89" s="44">
         <v>76</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2154,12 +2154,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037EB6548DE3D0B4FAB42E42BA2CC71F0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c54fa326369124d17a54429b83253287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="93aadb1b-f078-425f-a07f-e2cc4bed1fef" xmlns:ns4="fe025bb9-070a-4424-8929-b6cadbd5fdba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a4e25a91c3db45a1871018eed75e1f9" ns3:_="" ns4:_="">
     <xsd:import namespace="93aadb1b-f078-425f-a07f-e2cc4bed1fef"/>
@@ -2362,6 +2356,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5FD975C-D65C-425C-AA1D-2F3337776AE2}">
   <ds:schemaRefs>
@@ -2371,15 +2371,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C728231-EDAA-4C6E-ABAD-D5F6C06F1137}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC8F4E9-CA64-42D3-8772-29142F0497EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2396,4 +2387,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C728231-EDAA-4C6E-ABAD-D5F6C06F1137}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>